--- a/data/trans_bre/P31_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-5,55</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 13,22</t>
+          <t>-5,16; 12,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 10,23</t>
+          <t>-4,44; 11,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 7,64</t>
+          <t>-5,04; 10,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 17,68</t>
+          <t>2,87; 25,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 12,49</t>
+          <t>-7,99; 12,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 9,28</t>
+          <t>-15,21; 3,95</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 15,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 14,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 13,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 40,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 16,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-16,41; 4,84</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,54%</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,4%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,57%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 2,09</t>
+          <t>-13,12; 1,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 6,57</t>
+          <t>-7,89; 6,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 8,65</t>
+          <t>-3,16; 8,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 2,37</t>
+          <t>-10,91; 8,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 8,16</t>
+          <t>-13,32; 3,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 10,25</t>
+          <t>-8,6; 9,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,4; 1,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 8,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 9,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 10,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,16; 3,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 11,56</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -1,92</t>
+          <t>-12,45; -1,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 4,26</t>
+          <t>-5,1; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,46</t>
+          <t>-1,44; 11,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -2,07</t>
+          <t>-0,76; 15,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,87</t>
+          <t>-5,33; 6,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 11,24</t>
+          <t>-1,31; 12,89</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; -2,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 5,53</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 13,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 21,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 6,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 16,45</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,68%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -882,32 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 0,77</t>
+          <t>-9,69; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,41</t>
+          <t>-4,86; 4,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 2,82</t>
+          <t>-5,44; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 0,87</t>
+          <t>1,23; 12,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 6,34</t>
+          <t>-7,84; 5,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,12</t>
+          <t>-1,12; 9,97</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 1,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 4,8</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 3,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 16,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 6,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 11,98</t>
         </is>
       </c>
     </row>
@@ -924,32 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 10,3</t>
+          <t>-1,78; 10,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 2,48</t>
+          <t>-9,84; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,73</t>
+          <t>-6,62; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 12,35</t>
+          <t>-8,36; 5,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 2,68</t>
+          <t>-3,37; 6,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 4,17</t>
+          <t>-0,99; 9,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 12,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 1,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 4,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 6,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 7,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 10,46</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,36</t>
+          <t>-2,87; 10,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 11,69</t>
+          <t>-1,25; 11,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 9,7</t>
+          <t>-5,1; 8,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 10,13</t>
+          <t>-5,45; 12,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 14,51</t>
+          <t>-7,56; 8,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 11,95</t>
+          <t>-5,37; 10,67</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 12,63</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 14,21</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 10,38</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 16,01</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 10,19</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 12,99</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -1122,47 +1560,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,21</t>
+          <t>-3,94; 1,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,35</t>
+          <t>-1,72; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,36</t>
+          <t>-1,63; 3,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,42</t>
+          <t>1,2; 8,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,86</t>
+          <t>-3,4; 2,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,79</t>
+          <t>-0,78; 5,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 1,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 3,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 10,38</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 2,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 6,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
